--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-9.996415003602712</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.011618052038928</v>
+        <v>-9.097176251109609</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.730189811281717</v>
+        <v>-1.711061956829955</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.689387111144488</v>
+        <v>-7.730313649827724</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.474687439419576</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.677191451603758</v>
+        <v>-9.752760223606201</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.744787728950242</v>
+        <v>-1.724193536580207</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.571163616483702</v>
+        <v>-7.594559561661867</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.821164351870964</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.21442100641115</v>
+        <v>-10.29390437696326</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.742313283713155</v>
+        <v>-1.722268968062473</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.382961763133889</v>
+        <v>-7.398017911401874</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.08036220837066</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.86704611846551</v>
+        <v>-10.94244469053101</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.744080744596789</v>
+        <v>-1.724416105728516</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.964662687340741</v>
+        <v>-6.979273697312108</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.270851195729669</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.47117734079411</v>
+        <v>-11.55354101797141</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.800338369907685</v>
+        <v>-1.777178086180672</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.717990609499781</v>
+        <v>-6.731763712089276</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.423041870041792</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.27182402877703</v>
+        <v>-12.35290466027584</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.580911374280356</v>
+        <v>-1.563210580838343</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.344768332390696</v>
+        <v>-6.354181698133897</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.560387098844395</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.91140920720103</v>
+        <v>-12.99267313093963</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.48650277848867</v>
+        <v>-1.47004575381662</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.665055245756804</v>
+        <v>-5.685492330492738</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.710777558418868</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.52292448833237</v>
+        <v>-13.60637482664553</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.373830420232775</v>
+        <v>-1.356090349882237</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.282092295333475</v>
+        <v>-5.295263151992251</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.897543885058768</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.15648720744918</v>
+        <v>-14.23828791560429</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.295747926084721</v>
+        <v>-1.281568962107132</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.87481693853306</v>
+        <v>-4.892242793615397</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.144587748899359</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.00323189373781</v>
+        <v>-15.08098708031483</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.188770719564977</v>
+        <v>-1.170035634198467</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.306309872236788</v>
+        <v>-4.329221402209809</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.471670070597587</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.78704188026627</v>
+        <v>-15.85910191510713</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9479639933971098</v>
+        <v>-0.9287575851282976</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.789595955982386</v>
+        <v>-3.808959471885299</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.893136151508139</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.55394970382606</v>
+        <v>-16.62250100150533</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8618428253042357</v>
+        <v>-0.8378577264981936</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.32224002144129</v>
+        <v>-3.342218875577764</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.425811056421588</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.29217229185963</v>
+        <v>-17.35365374600437</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6726459569384523</v>
+        <v>-0.6542774560515107</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.732418686118689</v>
+        <v>-2.766511042718544</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.077159185874596</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.05062248778366</v>
+        <v>-18.11782527827024</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.495009591981913</v>
+        <v>-0.4713648930497557</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.453657374012658</v>
+        <v>-2.484633762536182</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.8491839000613264</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.91827558171053</v>
+        <v>-18.98471901863229</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3342884822968838</v>
+        <v>-0.3095309376231798</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.881981970428689</v>
+        <v>-1.916257619268328</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.7385492956908625</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.75010813506243</v>
+        <v>-19.81805718681099</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09108586470898034</v>
+        <v>-0.06926099587182298</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.611652101352729</v>
+        <v>-1.647525011139059</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.7365398875719225</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.48627523154985</v>
+        <v>-20.55375296039611</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01303721979126708</v>
+        <v>0.03414201197212951</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.16770520429264</v>
+        <v>-1.207034482029185</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.8322571194965699</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.19469973831565</v>
+        <v>-21.27126352533406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2909737168182698</v>
+        <v>0.3123796319644919</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7835377620078721</v>
+        <v>-0.8230241473785179</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.01266618019512</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.84708918891886</v>
+        <v>-21.91137239587173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4445464291517165</v>
+        <v>0.4625221609534065</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5505340483336733</v>
+        <v>-0.5937124631056858</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.262565791391628</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.46551720595063</v>
+        <v>-22.53019318198876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6321460365708094</v>
+        <v>0.6487339842712764</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2001709319862419</v>
+        <v>-0.2514011130059161</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.56771139572325</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.91628519279126</v>
+        <v>-22.98340942946079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7980647904840039</v>
+        <v>0.8156608455032837</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09426729429951977</v>
+        <v>-0.1363983248441943</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.913812218668777</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.36387175004135</v>
+        <v>-23.42532701958041</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8757152386382812</v>
+        <v>0.896322523311158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0558359577808696</v>
+        <v>0.01206838938097935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.286547591818211</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.86194222704913</v>
+        <v>-23.91808202163445</v>
       </c>
       <c r="F24" t="n">
-        <v>1.020935061758707</v>
+        <v>1.039643962519533</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01203454015063834</v>
+        <v>-0.04226466741218383</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.672608717939334</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.11808003984466</v>
+        <v>-24.16988628218937</v>
       </c>
       <c r="F25" t="n">
-        <v>1.078069871359999</v>
+        <v>1.0947625574832</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1899796926971949</v>
+        <v>0.1566990588735272</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.059464625845502</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.38088183478663</v>
+        <v>-24.43466501486044</v>
       </c>
       <c r="F26" t="n">
-        <v>1.216822096876612</v>
+        <v>1.231694952904813</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08486159318097629</v>
+        <v>0.05359717399493445</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.435851723509982</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.43204655429209</v>
+        <v>-24.48840891802572</v>
       </c>
       <c r="F27" t="n">
-        <v>1.186264662044024</v>
+        <v>1.200351979901721</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1203471615602381</v>
+        <v>-0.1470947362658845</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.79449840995307</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.51239401683177</v>
+        <v>-24.56903131892507</v>
       </c>
       <c r="F28" t="n">
-        <v>1.112764473890573</v>
+        <v>1.128252668152335</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.485596226238712</v>
+        <v>-0.5021579893334954</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.128617294671511</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.31857556556285</v>
+        <v>-24.37784442052735</v>
       </c>
       <c r="F29" t="n">
-        <v>1.133149189415141</v>
+        <v>1.147118676547263</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5442890198781699</v>
+        <v>-0.5570801997545363</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.433138218520509</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.0614558300542</v>
+        <v>-24.11916670098053</v>
       </c>
       <c r="F30" t="n">
-        <v>1.017203755448815</v>
+        <v>1.03491764119367</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8651813625288759</v>
+        <v>-0.8734033287134798</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.704707197587985</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.83283803783198</v>
+        <v>-23.89375652295453</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9517422412401845</v>
+        <v>0.9671518816848961</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.094218108442032</v>
+        <v>-1.096325969199549</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.94091101163245</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.4877642118326</v>
+        <v>-23.54919329676598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9229522672912288</v>
+        <v>0.9424074293140338</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.341832832087597</v>
+        <v>-1.342042308933064</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.139941775869642</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.14808441460402</v>
+        <v>-23.21427909777179</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8888206337828489</v>
+        <v>0.9080139497488194</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.630321725205031</v>
+        <v>-1.624534927348988</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.300437332852462</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.688911169339</v>
+        <v>-22.75860149736551</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8165903990050463</v>
+        <v>0.8409551745934984</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.87781861812502</v>
+        <v>-1.869779944180201</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.419838775004804</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.3360474231488</v>
+        <v>-22.4029752752757</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7340565218908052</v>
+        <v>0.7615896347669551</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.177488337869288</v>
+        <v>-2.159643529096016</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.498904250204646</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.75562636126656</v>
+        <v>-21.82760784229037</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7832573959700116</v>
+        <v>0.810004970675658</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.491467944619563</v>
+        <v>-2.466514015403233</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.537982716276534</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30399428243838</v>
+        <v>-21.37630307103323</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8033671731349029</v>
+        <v>0.8291590097331033</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.670636109008584</v>
+        <v>-2.648575578720276</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.537023064160338</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.82058718461332</v>
+        <v>-20.89518712620548</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8992290145420212</v>
+        <v>0.9239341900043583</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.800223722535989</v>
+        <v>-2.778909453509659</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.498566230914114</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.31703103271485</v>
+        <v>-20.40282489323669</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9206611142939267</v>
+        <v>0.9442272594090337</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.872205203559798</v>
+        <v>-2.843114106645483</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.42566397020042</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.6562494159901</v>
+        <v>-19.74305138383074</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9365682622466239</v>
+        <v>0.9624779295703998</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.999724233238211</v>
+        <v>-2.966312676386126</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.321971363746504</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.12423059771372</v>
+        <v>-19.20647644416544</v>
       </c>
       <c r="F41" t="n">
-        <v>1.007044128443635</v>
+        <v>1.03529731797608</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.158507682102664</v>
+        <v>-3.1241927563545</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.191948985750344</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.36828103163246</v>
+        <v>-18.44983298603357</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9812522918454351</v>
+        <v>1.010147004217124</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.373116710284238</v>
+        <v>-3.339980091791829</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.039716418795426</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.83871047398748</v>
+        <v>-17.92628488769579</v>
       </c>
       <c r="F43" t="n">
-        <v>1.096058695464531</v>
+        <v>1.118158502661365</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.404904821583949</v>
+        <v>-3.375368586373015</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.869703428865587</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.28850644706394</v>
+        <v>-17.37064755509293</v>
       </c>
       <c r="F44" t="n">
-        <v>1.03263958049921</v>
+        <v>1.064309861073345</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.546969399719519</v>
+        <v>-3.52157033220657</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.686544911503121</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.62730587664825</v>
+        <v>-16.7173416432908</v>
       </c>
       <c r="F45" t="n">
-        <v>1.059976308832734</v>
+        <v>1.085624130099675</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.729436824424655</v>
+        <v>-3.701785880822929</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.493373267861418</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.15306339081241</v>
+        <v>-16.24120077354291</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8747202236223099</v>
+        <v>0.9062464888651863</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.892868040797921</v>
+        <v>-3.866133558395116</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.292931206998994</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.56195900981132</v>
+        <v>-15.64957270042815</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9560888857836375</v>
+        <v>0.9852716288178449</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.853551855364218</v>
+        <v>-3.835576123562528</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.089231045196282</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.89765556362213</v>
+        <v>-14.99820444944659</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9435988288726308</v>
+        <v>0.9698488960702916</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.995616433499787</v>
+        <v>-3.978125116903241</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.884353664013249</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.3978438103364</v>
+        <v>-14.49479231287938</v>
       </c>
       <c r="F49" t="n">
-        <v>0.857464568476915</v>
+        <v>0.8856522964951513</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.1049371622282</v>
+        <v>-4.087498214843021</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.680256680940825</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.87809247982272</v>
+        <v>-13.97765944293404</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8492818792008362</v>
+        <v>0.8773910534020221</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.170215384197046</v>
+        <v>-4.159361865141255</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.478655698593674</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.39941170332353</v>
+        <v>-13.50337768018968</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9623731911476661</v>
+        <v>0.9905478268630605</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.258797905224164</v>
+        <v>-4.250654492856611</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.280596737178149</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.75015131309949</v>
+        <v>-12.8627974867497</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8495568175605125</v>
+        <v>0.8778754686071659</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.362593682153369</v>
+        <v>-4.354659746631283</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.088639285008559</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.35569332078113</v>
+        <v>-12.4648438495726</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8632120894244327</v>
+        <v>0.8898025564959784</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.547810490455268</v>
+        <v>-4.544118461053901</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.904766329020282</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.71567609636335</v>
+        <v>-11.83100619209611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.844372265635189</v>
+        <v>0.8677682108133534</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.740228065320116</v>
+        <v>-4.727345239323857</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.72980130223985</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.33700742127211</v>
+        <v>-11.45068788684681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8074650639243631</v>
+        <v>0.8303242246860169</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.959445584101977</v>
+        <v>-4.94399666674874</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.567598841781738</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.94815293457</v>
+        <v>-11.07191447333284</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7285446623944385</v>
+        <v>0.753420037793718</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.153368773793623</v>
+        <v>-5.144125607987365</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.420092216264019</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.38803803439527</v>
+        <v>-10.51536067953106</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7114330225803025</v>
+        <v>0.7352348291465605</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.236072850844807</v>
+        <v>-5.224499255132721</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.288591488635938</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.15633045870241</v>
+        <v>-10.2840327806206</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6195643335399107</v>
+        <v>0.6503050606122834</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.369941647401456</v>
+        <v>-5.36724463301606</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.173691970199684</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.651766199485126</v>
+        <v>-9.777517768279903</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6511953372055208</v>
+        <v>0.6785582501447283</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.582285707191411</v>
+        <v>-5.582311891797095</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.075203435338082</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.523592554664626</v>
+        <v>-9.650273676961168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6325911748674281</v>
+        <v>0.6601635646521032</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.637155548401085</v>
+        <v>-5.640742839379718</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.992522151779233</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.147686355472988</v>
+        <v>-9.276527707738413</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6622845177124628</v>
+        <v>0.6928288602422097</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.648022159759718</v>
+        <v>-5.649030267078531</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.924439057708279</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.872093380654654</v>
+        <v>-9.005412300491951</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6225886554963493</v>
+        <v>0.6533948440829308</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.723368362613852</v>
+        <v>-5.731040452079103</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.868175186491337</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.535385536171143</v>
+        <v>-8.67515896130941</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5829189778859194</v>
+        <v>0.6132145666616735</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.711009228731262</v>
+        <v>-5.726248669239031</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.821202556937299</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.219612283931552</v>
+        <v>-8.367411290711798</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4763214481485857</v>
+        <v>0.5093533282182606</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.631918627264395</v>
+        <v>-5.654227911306696</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.780934512146337</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.116025983847816</v>
+        <v>-8.258090561983385</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3381452839570088</v>
+        <v>0.3676029653508925</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.653966065249861</v>
+        <v>-5.67116935118389</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.744010359528163</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.914051027908507</v>
+        <v>-8.058079451470336</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2927542700047445</v>
+        <v>0.3242674429447792</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.635060779946409</v>
+        <v>-5.653403096227668</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.70744502653883</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.784607429712362</v>
+        <v>-7.930691344820342</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1946929217202163</v>
+        <v>0.2291780474053227</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.585794444352994</v>
+        <v>-5.605694744672418</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.668728698705205</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.634674377568915</v>
+        <v>-7.783389845548081</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1401372957787438</v>
+        <v>0.1748188060064761</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.529288065288104</v>
+        <v>-5.552657825860585</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.625783465025922</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.562090650614386</v>
+        <v>-7.711761856700998</v>
       </c>
       <c r="F69" t="n">
-        <v>0.135489528269931</v>
+        <v>0.1701055769834547</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.436267253597641</v>
+        <v>-5.46380036647379</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.578331233990221</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.568623709732407</v>
+        <v>-7.7195124999833</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02629972256993559</v>
+        <v>0.06395318554273977</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.342041950045738</v>
+        <v>-5.366079418063147</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.526786031288215</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.648198726404418</v>
+        <v>-7.794596856780599</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02910147537806497</v>
+        <v>0.06692513828781158</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.174133166100601</v>
+        <v>-5.199283479859557</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.47268665865267</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.64904972608913</v>
+        <v>-7.802530792302685</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.04061503725412634</v>
+        <v>-0.00846034147484712</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.100371131890316</v>
+        <v>-5.118543248234633</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.419542683576032</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.873124489225272</v>
+        <v>-8.018095558591705</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.07276973303340557</v>
+        <v>-0.0431549440054212</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.831612339155364</v>
+        <v>-4.850124855373564</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.370798745944089</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.996165951331814</v>
+        <v>-8.146138280383786</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1370922168948057</v>
+        <v>-0.1031831525347352</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.694850143670693</v>
+        <v>-4.718075888911915</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.329929299138471</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.350234189383453</v>
+        <v>-8.491159737171794</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2130144810739752</v>
+        <v>-0.1801135240327176</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.455771601477934</v>
+        <v>-4.476549086087752</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.300388500407667</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.607432478709162</v>
+        <v>-8.748947180125379</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2083274366566373</v>
+        <v>-0.174025603211315</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.173684844450103</v>
+        <v>-4.193702975495103</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.284383546455804</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.130142669665075</v>
+        <v>-9.267376188052047</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2732390741459151</v>
+        <v>-0.2437421158435063</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.949282773742919</v>
+        <v>-3.965739798414968</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.284232253888831</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.582691209692179</v>
+        <v>-9.721810019688359</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2164315721156657</v>
+        <v>-0.1887544439082568</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.866827450445728</v>
+        <v>-3.877196554296375</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.301126990243075</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.02875905981263</v>
+        <v>-10.16675193176442</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2850745159148355</v>
+        <v>-0.2576723260671028</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.725103272184044</v>
+        <v>-3.731335208336705</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.335093585274423</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.62482542359073</v>
+        <v>-10.76055332715091</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3387529575659124</v>
+        <v>-0.3091512608407697</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.396172255588517</v>
+        <v>-3.402443468649704</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.386080795373012</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.30188077274775</v>
+        <v>-11.43980818318534</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3521856602815233</v>
+        <v>-0.3248882088565245</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.22992619410428</v>
+        <v>-3.241565251330575</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.453257936071608</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.15363981102477</v>
+        <v>-12.28626483881145</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4131565146154416</v>
+        <v>-0.3885953544843635</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.892642288295733</v>
+        <v>-2.903875484133934</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.535654936884549</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.07423817764358</v>
+        <v>-13.20322354524026</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3879276470394355</v>
+        <v>-0.3645578864669545</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.759938706691998</v>
+        <v>-2.760475491108509</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.632458555725296</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.0182455817434</v>
+        <v>-14.1471131186145</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4448922567037856</v>
+        <v>-0.4208286040806931</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.477773395847117</v>
+        <v>-2.4831019631037</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.743120504990698</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.24403861990568</v>
+        <v>-15.37223844933186</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4905058398043592</v>
+        <v>-0.4678037866768062</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.27497362482878</v>
+        <v>-2.283666913915687</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.867712969044522</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.31159808592287</v>
+        <v>-16.43738893162617</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5862629427887437</v>
+        <v>-0.5633514128157231</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.030658161499331</v>
+        <v>-2.038840850775409</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.008813698550741</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.47864596123433</v>
+        <v>-17.60553656037634</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5183269833430271</v>
+        <v>-0.4950357765875965</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.967278323442535</v>
+        <v>-1.980855041489404</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.168930156665516</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.86305224832413</v>
+        <v>-18.9826504347833</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6722662801560423</v>
+        <v>-0.6494333040000719</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.94016416425732</v>
+        <v>-1.950546360410809</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.350489920439615</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.39665841859824</v>
+        <v>-20.51235509881057</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.656647162865863</v>
+        <v>-0.6333297715047489</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.927490815106529</v>
+        <v>-1.937650442111708</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.556366483643772</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.0304076133087</v>
+        <v>-22.14685055478302</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.685659705963128</v>
+        <v>-0.6672257435619777</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.941931625140953</v>
+        <v>-1.949106207098219</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.788393653771989</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.74405913226223</v>
+        <v>-23.85870842824723</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8332754205035894</v>
+        <v>-0.8143308582916118</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.988081992658037</v>
+        <v>-1.99197040660203</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.04770741051614</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.47577802913734</v>
+        <v>-25.59414553912938</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8798054648030839</v>
+        <v>-0.8609394564081566</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.049576539105625</v>
+        <v>-2.051828415194402</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.334033941135488</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.48888979098966</v>
+        <v>-27.61229783757577</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.055438707424839</v>
+        <v>-1.034870699660488</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.244298359270616</v>
+        <v>-2.247558342678206</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.64335721996944</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.54342559903321</v>
+        <v>-29.66730496852162</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.081636405411133</v>
+        <v>-1.06121241297804</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.307350889756369</v>
+        <v>-2.314839686981836</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.974450533181814</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.74672924426729</v>
+        <v>-31.86601321545826</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.308172521481519</v>
+        <v>-1.292042804380513</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.519459288095173</v>
+        <v>-2.527118285257583</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.323895003383277</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.00630360711511</v>
+        <v>-34.12914868467902</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.440457149394319</v>
+        <v>-1.42309675582619</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.741452375079481</v>
+        <v>-2.746034681074085</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.683716852484903</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.22347200105857</v>
+        <v>-36.34390809489962</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.622112851323269</v>
+        <v>-1.602513673969205</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.817872146766636</v>
+        <v>-2.82549186702052</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.05063876429831</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.56359021098869</v>
+        <v>-38.68039973694258</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.895388488538617</v>
+        <v>-1.873445788975884</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.086211985810653</v>
+        <v>-3.088935184801732</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.410831682516817</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.87275821700097</v>
+        <v>-40.99040565033672</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.912905989740846</v>
+        <v>-1.890675259515595</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.34567524352798</v>
+        <v>-3.345793074253556</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.764107157784955</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.20070058528828</v>
+        <v>-43.31999764878209</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.254549632395688</v>
+        <v>-2.22892799573443</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.382791922084273</v>
+        <v>-3.392532595398518</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.087329517311506</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.55244476014185</v>
+        <v>-45.66146436590491</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.288484881361442</v>
+        <v>-2.267969242808457</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.650097469203795</v>
+        <v>-3.658974050530485</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.392922791826402</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.09409278771466</v>
+        <v>-48.20385865473969</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.560686949743769</v>
+        <v>-2.539909465133949</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.664158602455808</v>
+        <v>-3.685040825488362</v>
       </c>
     </row>
   </sheetData>
